--- a/凡熙餐厅_新.xlsx
+++ b/凡熙餐厅_新.xlsx
@@ -636,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG103"/>
+  <dimension ref="A1:BG110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L34" activePane="bottomRight" state="frozen"/>
@@ -22403,7 +22403,6 @@
           <t>3007.90</t>
         </is>
       </c>
-      <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
           <t>1546</t>
@@ -22547,6 +22546,1701 @@
       <c r="BA103" t="inlineStr">
         <is>
           <t>19.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>2987.90</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG104" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL104" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AM104" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AN104" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO104" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="AP104" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AQ104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR104" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AS104" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AT104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU104" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="AV104" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AX104" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="AY104" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AZ104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA104" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>2987.90</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG105" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL105" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AM105" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AN105" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO105" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="AP105" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AQ105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR105" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AS105" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AT105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU105" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="AV105" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AZ105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA105" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>2987.90</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD106" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG106" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL106" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AM106" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AN106" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO106" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="AP106" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AQ106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR106" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AS106" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AT106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU106" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="AV106" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AZ106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA106" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>2987.90</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL107" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AM107" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR107" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AS107" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AT107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU107" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="AV107" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AZ107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA107" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>3727.80</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>3727.80</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>3727.80</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD108" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG108" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL108" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AM108" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AN108" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AO108" t="inlineStr">
+        <is>
+          <t>1770.0</t>
+        </is>
+      </c>
+      <c r="AP108" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AQ108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR108" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="AS108" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AT108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AU108" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="AV108" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>1757.8</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AZ108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA108" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>3727.80</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>3727.80</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>3727.80</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC109" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD109" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG109" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL109" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AM109" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AN109" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AO109" t="inlineStr">
+        <is>
+          <t>1770.0</t>
+        </is>
+      </c>
+      <c r="AP109" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AQ109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR109" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="AS109" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AT109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AU109" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="AV109" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>1757.8</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AZ109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA109" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>3727.80</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>3727.80</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>3727.80</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC110" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD110" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG110" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL110" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AM110" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AN110" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AO110" t="inlineStr">
+        <is>
+          <t>1770.0</t>
+        </is>
+      </c>
+      <c r="AP110" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AQ110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR110" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="AS110" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AT110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AU110" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="AV110" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AW110" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AX110" t="inlineStr">
+        <is>
+          <t>1757.8</t>
+        </is>
+      </c>
+      <c r="AY110" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AZ110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA110" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
